--- a/out/stats/potential_neg_overall_tcs_stats.xlsx
+++ b/out/stats/potential_neg_overall_tcs_stats.xlsx
@@ -546,7 +546,7 @@
         <v>-384.6666666666667</v>
       </c>
       <c r="H3">
-        <v>-306.2224137931035</v>
+        <v>-306.2224137931034</v>
       </c>
       <c r="I3">
         <v>-120.6666666666667</v>
@@ -558,7 +558,7 @@
         <v>-1573.666666666667</v>
       </c>
       <c r="L3">
-        <v>-4.570296296296296</v>
+        <v>-4.570296296296297</v>
       </c>
       <c r="M3">
         <v>-14.68</v>
@@ -578,7 +578,7 @@
         <v>1727.145491265056</v>
       </c>
       <c r="E4">
-        <v>4816.102261265629</v>
+        <v>4816.10226126563</v>
       </c>
       <c r="F4">
         <v>1874.797855770056</v>
@@ -901,7 +901,7 @@
         <v>-121.8455573403555</v>
       </c>
       <c r="H3">
-        <v>-4.570296296296296</v>
+        <v>-4.570296296296297</v>
       </c>
       <c r="I3">
         <v>-14.68</v>
@@ -1142,7 +1142,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>-4.570296296296297</v>
+        <v>-4.570296296296296</v>
       </c>
       <c r="C3">
         <v>-301.5116137931034</v>
@@ -1168,7 +1168,7 @@
         <v>4.137345663538538</v>
       </c>
       <c r="C4">
-        <v>713.2502572008204</v>
+        <v>713.2502572008203</v>
       </c>
       <c r="D4">
         <v>99.66547676296355</v>
@@ -1394,7 +1394,7 @@
         <v>474.3938463373019</v>
       </c>
       <c r="C4">
-        <v>2944.245163272508</v>
+        <v>2944.245163272507</v>
       </c>
       <c r="D4">
         <v>153.4986432583131</v>
@@ -1603,13 +1603,13 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>-4.570296296296297</v>
+        <v>-4.570296296296296</v>
       </c>
       <c r="C3">
-        <v>-139.1002666666667</v>
+        <v>-139.1002666666666</v>
       </c>
       <c r="D3">
-        <v>-100.6540879818594</v>
+        <v>-100.6540879818595</v>
       </c>
       <c r="E3">
         <v>-70.824112345679</v>
@@ -1843,7 +1843,7 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>4.137345663538537</v>
+        <v>4.137345663538538</v>
       </c>
       <c r="C4">
         <v>84.46081087732118</v>
@@ -2037,7 +2037,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>-4.570296296296297</v>
+        <v>-4.570296296296296</v>
       </c>
       <c r="C3">
         <v>-178.2808</v>
@@ -2046,7 +2046,7 @@
         <v>-123.5732244897959</v>
       </c>
       <c r="E3">
-        <v>-88.21053703703704</v>
+        <v>-88.21053703703703</v>
       </c>
       <c r="F3">
         <v>-309.35</v>
@@ -2298,7 +2298,7 @@
         <v>4396.166489075397</v>
       </c>
       <c r="C4">
-        <v>3092.029145176897</v>
+        <v>3092.029145176896</v>
       </c>
       <c r="D4">
         <v>5977.057330604528</v>
@@ -2313,10 +2313,10 @@
         <v>381.4395511766018</v>
       </c>
       <c r="H4">
-        <v>4.137345663538538</v>
+        <v>4.137345663538537</v>
       </c>
       <c r="I4">
-        <v>9.157849092445234</v>
+        <v>9.157849092445232</v>
       </c>
     </row>
     <row r="5" spans="1:9">
